--- a/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type2/pd_results_W15_H200_B32.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type2/pd_results_W15_H200_B32.xlsx
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.08276394780937443</v>
+        <v>0.0729299195257582</v>
       </c>
       <c r="J2" t="n">
-        <v>1078.601288722689</v>
+        <v>944.8480076296748</v>
       </c>
       <c r="K2" t="n">
-        <v>1583022.362563959</v>
+        <v>1190415.47812806</v>
       </c>
       <c r="L2" t="n">
-        <v>1258.182165890122</v>
+        <v>1091.061628932142</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7064488786650995</v>
+        <v>0.7792527719615238</v>
       </c>
     </row>
   </sheetData>
